--- a/Statistics_Input.xlsx
+++ b/Statistics_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/040e7ab5c4e56160/Documents/GitHub/Annabel-BSc-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B89857-4A00-47B9-BCE3-ACB8107A96E0}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="840" windowWidth="15720" windowHeight="10920" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="15720" windowHeight="10920" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>UniProt_ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Heatmap_Position</t>
+  </si>
+  <si>
+    <t>Protein_length</t>
   </si>
 </sst>
 </file>
@@ -554,11 +557,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6AE74-3852-49FA-BC82-2ADF7E2AC097}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -568,9 +569,10 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +591,11 @@
       <c r="F1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -610,8 +615,11 @@
         <f>(C2-B2)+7</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -631,8 +639,11 @@
         <f t="shared" ref="F3:F28" si="0">(C3-B3)+7</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -652,8 +663,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -673,8 +687,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -694,8 +711,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -715,8 +735,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -736,8 +759,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -757,8 +783,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -778,8 +807,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -799,8 +831,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -820,8 +855,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -841,8 +879,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -862,8 +903,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -883,8 +927,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -904,8 +951,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -925,8 +975,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -946,8 +999,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -967,8 +1023,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -988,8 +1047,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1009,8 +1071,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1030,8 +1095,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1051,8 +1119,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1072,8 +1143,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1093,8 +1167,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1114,8 +1191,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1135,8 +1215,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1155,6 +1238,9 @@
       <c r="F28">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="G28">
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/Statistics_Input.xlsx
+++ b/Statistics_Input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/040e7ab5c4e56160/Documents/GitHub/Annabel-BSc-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B89857-4A00-47B9-BCE3-ACB8107A96E0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE2BB8B-C61A-4A60-956A-8C6C46AE4F51}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="15720" windowHeight="10920" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
   <si>
     <t>UniProt_ID</t>
   </si>
@@ -180,6 +180,126 @@
   </si>
   <si>
     <t>Protein_length</t>
+  </si>
+  <si>
+    <t>Q9BXW9</t>
+  </si>
+  <si>
+    <t>P53621</t>
+  </si>
+  <si>
+    <t>P13639</t>
+  </si>
+  <si>
+    <t>P29401</t>
+  </si>
+  <si>
+    <t>P62873</t>
+  </si>
+  <si>
+    <t>Q14203</t>
+  </si>
+  <si>
+    <t>P09884</t>
+  </si>
+  <si>
+    <t>P35240</t>
+  </si>
+  <si>
+    <t>P49792</t>
+  </si>
+  <si>
+    <t>Q5JTZ9</t>
+  </si>
+  <si>
+    <t>Q8IYW5</t>
+  </si>
+  <si>
+    <t>Q9BTW9</t>
+  </si>
+  <si>
+    <t>Q9NYP3</t>
+  </si>
+  <si>
+    <t>O75643</t>
+  </si>
+  <si>
+    <t>Ile/Thr</t>
+  </si>
+  <si>
+    <t>Asn/Ser</t>
+  </si>
+  <si>
+    <t>Pro/Leu</t>
+  </si>
+  <si>
+    <t>Thr/Met</t>
+  </si>
+  <si>
+    <t>Ala/Thr</t>
+  </si>
+  <si>
+    <t>Glu/Lys</t>
+  </si>
+  <si>
+    <t>Ser/Ala</t>
+  </si>
+  <si>
+    <t>O15160</t>
+  </si>
+  <si>
+    <t>P07954</t>
+  </si>
+  <si>
+    <t>P11166</t>
+  </si>
+  <si>
+    <t>P01130</t>
+  </si>
+  <si>
+    <t>P25490</t>
+  </si>
+  <si>
+    <t>P55072</t>
+  </si>
+  <si>
+    <t>P07437</t>
+  </si>
+  <si>
+    <t>P17480</t>
+  </si>
+  <si>
+    <t>Ser/Gly</t>
+  </si>
+  <si>
+    <t>Arg/Cys</t>
+  </si>
+  <si>
+    <t>Cys/Tyr</t>
+  </si>
+  <si>
+    <t>Thr/Ile</t>
+  </si>
+  <si>
+    <t>Ser/Pro</t>
+  </si>
+  <si>
+    <t>Pro/Ser</t>
+  </si>
+  <si>
+    <t>Ala/Asp</t>
+  </si>
+  <si>
+    <t>Ile/Ser</t>
+  </si>
+  <si>
+    <t>Asn/Asp</t>
+  </si>
+  <si>
+    <t>Arg/Leu</t>
+  </si>
+  <si>
+    <t>Val/Met</t>
   </si>
 </sst>
 </file>
@@ -557,9 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6AE74-3852-49FA-BC82-2ADF7E2AC097}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -636,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F28" si="0">(C3-B3)+7</f>
+        <f t="shared" ref="F3:F66" si="0">(C3-B3)+7</f>
         <v>5</v>
       </c>
       <c r="G3">
@@ -1241,6 +1363,1110 @@
       </c>
       <c r="G28">
         <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>222</v>
+      </c>
+      <c r="C29">
+        <v>193</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="G29">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>565</v>
+      </c>
+      <c r="C30">
+        <v>572</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>917</v>
+      </c>
+      <c r="C31">
+        <v>917</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>153</v>
+      </c>
+      <c r="C32">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>279</v>
+      </c>
+      <c r="C33">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>280</v>
+      </c>
+      <c r="C34">
+        <v>283</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>417</v>
+      </c>
+      <c r="C36">
+        <v>411</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>404</v>
+      </c>
+      <c r="C37">
+        <v>400</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>581</v>
+      </c>
+      <c r="C38">
+        <v>585</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>380</v>
+      </c>
+      <c r="C39">
+        <v>375</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>673</v>
+      </c>
+      <c r="C40">
+        <v>678</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>174</v>
+      </c>
+      <c r="C41">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <v>805</v>
+      </c>
+      <c r="C42">
+        <v>807</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>542</v>
+      </c>
+      <c r="C43">
+        <v>539</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>307</v>
+      </c>
+      <c r="C44">
+        <v>308</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>932</v>
+      </c>
+      <c r="C45">
+        <v>934</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>258</v>
+      </c>
+      <c r="C46">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>365</v>
+      </c>
+      <c r="C47">
+        <v>365</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>234</v>
+      </c>
+      <c r="C48">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>489</v>
+      </c>
+      <c r="C49">
+        <v>488</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>108</v>
+      </c>
+      <c r="C51">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53">
+        <v>378</v>
+      </c>
+      <c r="C53">
+        <v>375</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54">
+        <v>239</v>
+      </c>
+      <c r="C54">
+        <v>242</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>68</v>
+      </c>
+      <c r="C56">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <v>197</v>
+      </c>
+      <c r="C57">
+        <v>191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>323</v>
+      </c>
+      <c r="C58">
+        <v>326</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>218</v>
+      </c>
+      <c r="C61">
+        <v>221</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>366</v>
+      </c>
+      <c r="C62">
+        <v>366</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>465</v>
+      </c>
+      <c r="C63">
+        <v>458</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>208</v>
+      </c>
+      <c r="C64">
+        <v>210</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>365</v>
+      </c>
+      <c r="C65">
+        <v>369</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>374</v>
+      </c>
+      <c r="C66">
+        <v>378</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>176</v>
+      </c>
+      <c r="C67">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F74" si="1">(C67-B67)+7</f>
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>365</v>
+      </c>
+      <c r="C68">
+        <v>362</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>84</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
